--- a/文献综述.xlsx
+++ b/文献综述.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\米加健康\papers\patient population prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358C07DC-A88D-40F6-8ACD-39399845D176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F446E959-16CD-4052-940A-74790CFEA2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,16 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>论文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预测模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输入数据（影响因素）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,6 +45,215 @@
   </si>
   <si>
     <t>评价指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测模型（包含对比模型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS数据（不包含患者和医院名字）
+月份、季度、周末、工作日、假期、季节（春夏秋冬）
+平均温度、最小温度、最大温度、温差、下雨、下雪、风速、相对湿度、沙尘现象
+天气数据源：http://www.kma.go.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动平均MA
+单一变量SARIMA
+多元变量SARIMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好的模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAPE
+AIC
+BIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体处理方法不详，
+仅是对输入数据的计算方法进行了定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多元变量SARIMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域紧急医疗中心的日入院人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑回归LR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照年龄，平均住院日、是否出院筛选掉一批数据（详情可见Figure1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细的社会人口和健康信息（详情见论文中Table1，2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC，ROC曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27家医院5年的历史数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运用三种移动平均模型，考虑季节性相关因素，对紧急医疗中心的每日患者人数进行预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用逻辑回归预测各指标对30天内再入院的影响程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未明确指出模型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运用大量数据分别预测急症科每一个月，每一天，每四个小时的presentations, admissions and admission rates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各因素对30天内再入院率的影响程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头四年作为训练数据
+第五年作为验证数据
+按照时间段内的假期，工作日对数据进行分类处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentations, admissions and admission rates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没指出确切的模型原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用决策树模型估计输入变量缺失的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入院情况（付费，入院类型）
+诊断编码
+医院情况（床位数范围）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用5、7、10层的神经网络（多层感知机）预测LOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2，MAE，MSE，RMSE，MAPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经网络（MLP）
+对比：决策树，ANN，泊松回归，随机森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLP（误差两天以内）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 Data analytics for the sustainable use of resources in hospitals Predicting the length of stay for patients with chronic diseases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012 Predicting emergency department admissions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR，CART、OT、RF、GBT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画像数据和相关变量（详情请见论文Table 2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于基于树的模型可以在一定程度上克服特征数据缺失的情况，因此论文中除了回归都是基于树的模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过采用LR，CART、OT、RF、GBT等机器学习模型预测即将出院的病人数，LOS，出院目的地，医院护理水平，来分析医院的人流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将出院的病人数，LOS，出院目的地，医院护理水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC，MAE、MRE，R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一种情况都有对应最好的模型，没有完美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 Predicting inpatient flow at a major hospital using interpretable analytics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010 Prediction of Daily Patient Numbers for a Regional Emergency Medical Center using Time Series Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010 Hospital Readmission in General Medicine Patients A Prediction Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表期刊（分区）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Healthcare Informatics Research（Q1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of General Internal Medicine（Q2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emergency Medicine Journal（Q1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information &amp; Management（Q1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacturing &amp; Service Operations Management（Q1）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +275,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,8 +303,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -373,36 +597,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/文献综述.xlsx
+++ b/文献综述.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\米加健康\papers\patient population prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F446E959-16CD-4052-940A-74790CFEA2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430A836F-374B-44DD-BA1D-C3647D5ECDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -277,10 +276,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -300,8 +301,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -311,15 +313,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -600,7 +603,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -647,7 +650,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -675,8 +678,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -705,7 +708,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -734,7 +737,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -763,7 +766,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -793,6 +796,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D7725D04-28F0-4230-8859-A89A29204B32}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{89824D92-02BE-4788-9B00-059CBED64CEE}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{248A5000-F9F1-4BE7-93C5-F63EA6F5497F}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{3CDCA3A6-BADA-43C4-92B4-9B3736E55D04}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{5B59F865-3D47-4841-BE08-46BE7D941444}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>